--- a/biology/Botanique/Dicranolepis_glandulosa/Dicranolepis_glandulosa.xlsx
+++ b/biology/Botanique/Dicranolepis_glandulosa/Dicranolepis_glandulosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dicranolepis glandulosa H. Pearson est une espèce du genre Dicranolepis de la famille des Thymelaeaceae'[2]. C’est une plante à fleur appartenant au groupe des dicotylédones[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dicranolepis glandulosa H. Pearson est une espèce du genre Dicranolepis de la famille des Thymelaeaceae'. C’est une plante à fleur appartenant au groupe des dicotylédones.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un arbuste, d’environ 4 m de haut avec de branches minces[4]. Son écorce est brun-rougeâtre, pubescente sur les jeunes tiges puis glabres. son fruit est d'abord vert, puis jaune, puis orangé, et rouge foncé à maturité, plus ou moins densément glanduleux[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un arbuste, d’environ 4 m de haut avec de branches minces. Son écorce est brun-rougeâtre, pubescente sur les jeunes tiges puis glabres. son fruit est d'abord vert, puis jaune, puis orangé, et rouge foncé à maturité, plus ou moins densément glanduleux.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son habitat naturel se trouve dans les sous-bois des forêts denses humides, sur des sols frais, à 1- 800 m d’altitude. Elle a été récoltée aux frontières du Gabon, au Nord-ouest de la rivière Kom (Cameroun). On la retrouve au Cameroun et au Gabon[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat naturel se trouve dans les sous-bois des forêts denses humides, sur des sols frais, à 1- 800 m d’altitude. Elle a été récoltée aux frontières du Gabon, au Nord-ouest de la rivière Kom (Cameroun). On la retrouve au Cameroun et au Gabon.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le synonyme homotypique[6] de cette espèce est :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le synonyme homotypique de cette espèce est :
 Dicranolepis fragrans Gilg
 </t>
         </is>
